--- a/Expr2d/Expr_3.xlsx
+++ b/Expr2d/Expr_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880CC74D-A51C-E744-8678-66F053DDA1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA212AA-D90E-0641-8044-F160258F615D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8080" yWindow="1340" windowWidth="28800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="Subnet2" sheetId="3" r:id="rId3"/>
     <sheet name="Subnet3" sheetId="4" r:id="rId4"/>
     <sheet name="Subnet4" sheetId="5" r:id="rId5"/>
-    <sheet name="Subnet5" sheetId="7" r:id="rId6"/>
-    <sheet name="Subnet6" sheetId="8" r:id="rId7"/>
-    <sheet name="LossRecord" sheetId="6" r:id="rId8"/>
+    <sheet name="Subnet5" sheetId="6" r:id="rId6"/>
+    <sheet name="Subnet6" sheetId="7" r:id="rId7"/>
+    <sheet name="LossRecord" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -38,24 +38,78 @@
     <t>SEED</t>
   </si>
   <si>
+    <t>PDE_Solver</t>
+  </si>
+  <si>
     <t>Save_Path</t>
   </si>
   <si>
+    <t>Train_Dataset</t>
+  </si>
+  <si>
+    <t>Valid_Dataset</t>
+  </si>
+  <si>
+    <t>Test_Dataset</t>
+  </si>
+  <si>
     <t>Batch_size</t>
   </si>
   <si>
+    <t>Mu</t>
+  </si>
+  <si>
     <t>Epoch</t>
   </si>
   <si>
+    <t>Penalty</t>
+  </si>
+  <si>
     <t>Sub_number</t>
   </si>
   <si>
     <t>Scale_Coeff</t>
   </si>
   <si>
+    <t>Sum_Samples</t>
+  </si>
+  <si>
+    <t>Boundary</t>
+  </si>
+  <si>
+    <t>Domain_Numbers</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Con_record</t>
+  </si>
+  <si>
     <t>mscalenn2</t>
   </si>
   <si>
+    <t>src_lam/possion_domain.py</t>
+  </si>
+  <si>
+    <t>Result/Expr2_3</t>
+  </si>
+  <si>
+    <t>data/possion_2d/holes/train_loader.pt</t>
+  </si>
+  <si>
+    <t>data/possion_2d/holes/val_loader.pt</t>
+  </si>
+  <si>
+    <t>data/possion_2d/holes/test_loader.pt</t>
+  </si>
+  <si>
+    <t>1100,550,550,400</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
     <t>Layer_Set</t>
   </si>
   <si>
@@ -68,6 +122,12 @@
     <t>Residual</t>
   </si>
   <si>
+    <t>2,200,200,200,1</t>
+  </si>
+  <si>
+    <t>phi,phi,phi</t>
+  </si>
+  <si>
     <t>xavier_uniform</t>
   </si>
   <si>
@@ -83,71 +143,12 @@
     <t>test_loss</t>
   </si>
   <si>
-    <t>PDE_Solver</t>
-  </si>
-  <si>
-    <t>Mu</t>
-  </si>
-  <si>
-    <t>Penalty</t>
-  </si>
-  <si>
-    <t>Sum_Samples</t>
-  </si>
-  <si>
-    <t>src_lam/possion_domain.py</t>
-  </si>
-  <si>
-    <t>2,200,200,200,1</t>
-  </si>
-  <si>
-    <t>phi,phi,phi</t>
-  </si>
-  <si>
-    <t>Result/Expr2_3</t>
+    <t>1,2,4,8,16,32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Train_Dataset</t>
-  </si>
-  <si>
-    <t>Valid_Dataset</t>
-  </si>
-  <si>
-    <t>Test_Dataset</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/train_loader.pt</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/val_loader.pt</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/test_loader.pt</t>
-  </si>
-  <si>
-    <t>Boundary</t>
-  </si>
-  <si>
-    <t>Domain_Numbers</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Con_record</t>
-  </si>
-  <si>
-    <t>1,2,4,8,16</t>
-  </si>
-  <si>
-    <t>1100,550,550,400</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>0,2000,5000</t>
+    <t>0,5000,10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -174,13 +175,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -200,6 +194,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -246,26 +247,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -585,126 +586,126 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C15" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10100</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2400</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5">
-        <v>5200</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="2">
-        <v>5000</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>2400</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -725,30 +726,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -769,30 +770,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -813,30 +814,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -857,30 +858,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -891,7 +892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE188289-9729-2746-B091-EDE99BBB00E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -901,30 +902,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -935,7 +936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7866E14-A2C7-E84C-B9B3-E5F0DFFF020F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -945,30 +946,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -979,31 +980,43 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>118.3548049926758</v>
+      </c>
+      <c r="C2">
+        <v>0.2384821094572544</v>
+      </c>
+      <c r="D2">
+        <v>0.2396102070808411</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Expr2d/Expr_3.xlsx
+++ b/Expr2d/Expr_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA212AA-D90E-0641-8044-F160258F615D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57552006-966F-AC49-9C1E-F9B9EF5E6237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8080" yWindow="1340" windowWidth="28800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Model</t>
   </si>
@@ -147,18 +147,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Fig_Record_Interve</t>
+  </si>
+  <si>
     <t>0,5000,10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,14 +179,6 @@
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -235,15 +226,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -253,7 +241,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -262,16 +250,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -583,15 +567,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C14:C15"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,8 +633,11 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -705,8 +692,11 @@
       <c r="R2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>39</v>
+      <c r="S2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -988,16 +978,16 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
